--- a/Process.xlsx
+++ b/Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>Category</t>
   </si>
@@ -28,22 +28,25 @@
     <t>Without Image Processing</t>
   </si>
   <si>
+    <t>Novice</t>
+  </si>
+  <si>
+    <t>2022 Test</t>
+  </si>
+  <si>
+    <t>2022 Exam</t>
+  </si>
+  <si>
+    <t>2023 Test</t>
+  </si>
+  <si>
+    <t>2023 Exam</t>
+  </si>
+  <si>
     <t>Correct Overall</t>
   </si>
   <si>
-    <t>Novice</t>
-  </si>
-  <si>
-    <t>2022 Test</t>
-  </si>
-  <si>
-    <t>2022 Exam</t>
-  </si>
-  <si>
-    <t>2023 Test</t>
-  </si>
-  <si>
-    <t>2023 Exam</t>
+    <t>Expected</t>
   </si>
   <si>
     <t>Correct &amp; Minor Error</t>
@@ -58,6 +61,9 @@
     <t>Run 1</t>
   </si>
   <si>
+    <t>Informed</t>
+  </si>
+  <si>
     <t>Programming</t>
   </si>
   <si>
@@ -122,9 +128,6 @@
   </si>
   <si>
     <t>Texture Mapping</t>
-  </si>
-  <si>
-    <t>Informed</t>
   </si>
   <si>
     <t>Ray Tracing</t>
@@ -919,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1011,6 +1014,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,10 +1339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:Q29"/>
+  <dimension ref="B2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1348,10 +1357,13 @@
     <col min="11" max="11" width="9.77777777777778" style="1"/>
     <col min="12" max="12" width="9.88888888888889" style="1" customWidth="1"/>
     <col min="13" max="16" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="20" max="23" width="10.7777777777778" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:23">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1372,54 +1384,84 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="2:16">
+      <c r="S2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8">
         <v>0.4206</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="L3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>9</v>
+      <c r="S3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="33">
+        <v>0.6364</v>
+      </c>
+      <c r="U3" s="34">
+        <v>0.4883</v>
+      </c>
+      <c r="V3" s="34">
+        <v>0.7188</v>
+      </c>
+      <c r="W3" s="34">
+        <v>0.4169</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="13">
         <v>0.4912</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="14">
         <v>0.3636</v>
@@ -1434,7 +1476,7 @@
         <v>0.2331</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M4" s="14">
         <v>0.3636</v>
@@ -1449,15 +1491,15 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:23">
       <c r="B5" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="13">
         <v>0.5351</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="17">
         <v>0.5</v>
@@ -1472,7 +1514,7 @@
         <v>0.3263</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" s="17">
         <v>0.5</v>
@@ -1486,16 +1528,31 @@
       <c r="P5" s="13">
         <v>0.3977</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="S5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13">
         <v>0.2714</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="17">
         <v>0.5909</v>
@@ -1510,7 +1567,7 @@
         <v>0.2924</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M6" s="17">
         <v>0.5909</v>
@@ -1524,16 +1581,31 @@
       <c r="P6" s="13">
         <v>0.3523</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="S6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="33">
+        <v>0.6773</v>
+      </c>
+      <c r="U6" s="34">
+        <v>0.5383</v>
+      </c>
+      <c r="V6" s="34">
+        <v>0.7812</v>
+      </c>
+      <c r="W6" s="34">
+        <v>0.4703</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
       <c r="B7" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="13">
         <v>0.5357</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="17">
         <v>0.4091</v>
@@ -1548,7 +1620,7 @@
         <v>0.3178</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M7" s="17">
         <v>0.4091</v>
@@ -1562,16 +1634,21 @@
       <c r="P7" s="13">
         <v>0.3295</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="13">
         <v>0.2794</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="17">
         <v>0.4545</v>
@@ -1586,7 +1663,7 @@
         <v>0.3941</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="17">
         <v>0.4545</v>
@@ -1600,16 +1677,21 @@
       <c r="P8" s="13">
         <v>0.4205</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="21">
         <v>0.3647</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="17">
         <v>0.3636</v>
@@ -1624,7 +1706,7 @@
         <v>0.3432</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="17">
         <v>0.3636</v>
@@ -1638,16 +1720,21 @@
       <c r="P9" s="13">
         <v>0.4205</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8">
         <v>0.4591</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="17">
         <v>0.5</v>
@@ -1662,7 +1749,7 @@
         <v>0.3729</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M10" s="17">
         <v>0.5</v>
@@ -1676,16 +1763,21 @@
       <c r="P10" s="13">
         <v>0.4205</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="21">
         <v>0.35</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="17">
         <v>0.4091</v>
@@ -1700,7 +1792,7 @@
         <v>0.3263</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M11" s="17">
         <v>0.4091</v>
@@ -1714,16 +1806,21 @@
       <c r="P11" s="13">
         <v>0.3864</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8">
         <v>0.5</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="17">
         <v>0.3636</v>
@@ -1738,7 +1835,7 @@
         <v>0.3263</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12" s="17">
         <v>0.3636</v>
@@ -1752,16 +1849,21 @@
       <c r="P12" s="13">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="13">
         <v>0.3</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="17">
         <v>0.5</v>
@@ -1776,7 +1878,7 @@
         <v>0.3814</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M13" s="17">
         <v>0.5</v>
@@ -1790,16 +1892,21 @@
       <c r="P13" s="13">
         <v>0.4432</v>
       </c>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="13">
         <v>0.4667</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="16">
         <f>AVERAGE(F4:F13)</f>
@@ -1822,7 +1929,7 @@
         <v>0.406495</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="0"/>
@@ -1844,16 +1951,21 @@
         <f>AVERAGE(M14:P14)</f>
         <v>0.4224925</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="2:23">
       <c r="B15" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="13">
         <v>0.4357</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="25">
         <f>STDEV(F4:F13)</f>
@@ -1872,7 +1984,7 @@
         <v>0.046832628701698</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="25">
         <f t="shared" si="1"/>
@@ -1890,10 +2002,15 @@
         <f t="shared" si="1"/>
         <v>0.0517382096069562</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="2:23">
       <c r="B16" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="13">
         <v>0.75</v>
@@ -1903,54 +2020,64 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="2:23">
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="13">
         <v>0.6</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="L17" s="9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="2:23">
       <c r="B18" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="13">
         <v>0.3643</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="27">
         <v>0.5</v>
@@ -1965,7 +2092,7 @@
         <v>0.25</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18" s="27">
         <v>0.5</v>
@@ -1979,16 +2106,21 @@
       <c r="P18" s="8">
         <v>0.2955</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="2:23">
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="13">
         <v>0.4455</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="28">
         <v>0.5455</v>
@@ -2003,7 +2135,7 @@
         <v>0.3093</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M19" s="28">
         <v>0.5455</v>
@@ -2017,16 +2149,21 @@
       <c r="P19" s="13">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="2:23">
       <c r="B20" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="21">
         <v>0.2562</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="28">
         <v>0.5455</v>
@@ -2041,7 +2178,7 @@
         <v>0.3856</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M20" s="28">
         <v>0.5455</v>
@@ -2055,10 +2192,15 @@
       <c r="P20" s="13">
         <v>0.4773</v>
       </c>
-    </row>
-    <row r="21" spans="5:16">
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="5:23">
       <c r="E21" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" s="28">
         <v>0.4545</v>
@@ -2073,7 +2215,7 @@
         <v>0.411</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21" s="28">
         <v>0.4545</v>
@@ -2087,10 +2229,15 @@
       <c r="P21" s="13">
         <v>0.4545</v>
       </c>
-    </row>
-    <row r="22" spans="5:16">
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="5:23">
       <c r="E22" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="28">
         <v>0.5</v>
@@ -2105,7 +2252,7 @@
         <v>0.3941</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M22" s="28">
         <v>0.5</v>
@@ -2119,16 +2266,21 @@
       <c r="P22" s="13">
         <v>0.4205</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="2:23">
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="29">
         <v>0.004318</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="28">
         <v>0.4545</v>
@@ -2143,7 +2295,7 @@
         <v>0.3432</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M23" s="28">
         <v>0.4545</v>
@@ -2157,10 +2309,15 @@
       <c r="P23" s="13">
         <v>0.4205</v>
       </c>
-    </row>
-    <row r="24" spans="5:16">
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+    </row>
+    <row r="24" spans="5:23">
       <c r="E24" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F24" s="28">
         <v>0.4545</v>
@@ -2175,7 +2332,7 @@
         <v>0.4068</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M24" s="28">
         <v>0.4545</v>
@@ -2189,10 +2346,15 @@
       <c r="P24" s="13">
         <v>0.4659</v>
       </c>
-    </row>
-    <row r="25" spans="5:16">
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+    </row>
+    <row r="25" spans="5:23">
       <c r="E25" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" s="28">
         <v>0.3636</v>
@@ -2207,7 +2369,7 @@
         <v>0.3093</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M25" s="28">
         <v>0.3636</v>
@@ -2221,10 +2383,15 @@
       <c r="P25" s="13">
         <v>0.3636</v>
       </c>
-    </row>
-    <row r="26" spans="5:16">
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="5:23">
       <c r="E26" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F26" s="28">
         <v>0.4091</v>
@@ -2239,7 +2406,7 @@
         <v>0.3771</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M26" s="28">
         <v>0.4091</v>
@@ -2253,10 +2420,15 @@
       <c r="P26" s="13">
         <v>0.4432</v>
       </c>
-    </row>
-    <row r="27" spans="5:16">
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="5:23">
       <c r="E27" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="28">
         <v>0.5455</v>
@@ -2271,7 +2443,7 @@
         <v>0.3814</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M27" s="28">
         <v>0.5455</v>
@@ -2285,10 +2457,15 @@
       <c r="P27" s="13">
         <v>0.4432</v>
       </c>
-    </row>
-    <row r="28" spans="5:17">
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+    </row>
+    <row r="28" spans="5:23">
       <c r="E28" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" ref="F28:I28" si="2">AVERAGE(F18:F27)</f>
@@ -2311,7 +2488,7 @@
         <v>0.4425775</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M28" s="30">
         <f t="shared" ref="M28:P28" si="3">AVERAGE(M18:M27)</f>
@@ -2333,10 +2510,15 @@
         <f>AVERAGE(M28:P28)</f>
         <v>0.46524</v>
       </c>
-    </row>
-    <row r="29" spans="5:16">
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+    </row>
+    <row r="29" spans="5:23">
       <c r="E29" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F29" s="31">
         <f t="shared" ref="F29:I29" si="4">STDEV(F18:F27)</f>
@@ -2355,7 +2537,7 @@
         <v>0.0524714906719195</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" ref="M29:P29" si="5">STDEV(M18:M27)</f>
@@ -2373,6 +2555,11 @@
         <f t="shared" si="5"/>
         <v>0.0559732833094901</v>
       </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
